--- a/Clarifications/H1 - mandatory data elements.xlsx
+++ b/Clarifications/H1 - mandatory data elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netcompany-my.sharepoint.com/personal/ciar_netcompany_com/Documents/Documents/DMS Project/R2/dms-import/Clarifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28269B9D-EA62-424B-992E-B5F95E5CCFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="14310" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2103,9 +2103,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2143,7 +2143,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2249,7 +2249,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2391,7 +2391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2402,8 +2402,8 @@
   <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" activeCellId="1" sqref="G49 G53"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Clarifications/H1 - mandatory data elements.xlsx
+++ b/Clarifications/H1 - mandatory data elements.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28269B9D-EA62-424B-992E-B5F95E5CCFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="14310" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="17895" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2402,8 +2402,8 @@
   <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6358,8 +6358,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Clarifications/H1 - mandatory data elements.xlsx
+++ b/Clarifications/H1 - mandatory data elements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28269B9D-EA62-424B-992E-B5F95E5CCFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="17895" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="345" windowWidth="15000" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2402,7 +2402,7 @@
   <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
